--- a/肌张力障碍.xlsx
+++ b/肌张力障碍.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12405"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830">
   <si>
     <t>Gene</t>
   </si>
@@ -926,6 +926,1584 @@
   </si>
   <si>
     <t>MRE11A</t>
+  </si>
+  <si>
+    <t>TSEN54</t>
+  </si>
+  <si>
+    <t>UBE3A</t>
+  </si>
+  <si>
+    <t>DCTN1</t>
+  </si>
+  <si>
+    <t>DARS2</t>
+  </si>
+  <si>
+    <t>RARS2</t>
+  </si>
+  <si>
+    <t>GAMT</t>
+  </si>
+  <si>
+    <t>NDUFS1</t>
+  </si>
+  <si>
+    <t>NDUFV1</t>
+  </si>
+  <si>
+    <t>PRNP</t>
+  </si>
+  <si>
+    <t>PARK2</t>
+  </si>
+  <si>
+    <t>TACO1</t>
+  </si>
+  <si>
+    <t>SLITRK1</t>
+  </si>
+  <si>
+    <t>CLCN2</t>
+  </si>
+  <si>
+    <t>VRK1</t>
+  </si>
+  <si>
+    <t>OPA3</t>
+  </si>
+  <si>
+    <t>NDUFV2</t>
+  </si>
+  <si>
+    <t>EIF2B5</t>
+  </si>
+  <si>
+    <t>EIF2B4</t>
+  </si>
+  <si>
+    <t>EIF2B3</t>
+  </si>
+  <si>
+    <t>EIF2B1</t>
+  </si>
+  <si>
+    <t>EIF2B2</t>
+  </si>
+  <si>
+    <t>KCNA1</t>
+  </si>
+  <si>
+    <t>KIF1C</t>
+  </si>
+  <si>
+    <t>PET100</t>
+  </si>
+  <si>
+    <t>CHRNA2</t>
+  </si>
+  <si>
+    <t>NDUFAF5</t>
+  </si>
+  <si>
+    <t>NDUFS2</t>
+  </si>
+  <si>
+    <t>NDUFA13</t>
+  </si>
+  <si>
+    <t>MTFMT</t>
+  </si>
+  <si>
+    <t>KCNC3</t>
+  </si>
+  <si>
+    <t>NDUFA4</t>
+  </si>
+  <si>
+    <t>NEK9</t>
+  </si>
+  <si>
+    <t>NAA10</t>
+  </si>
+  <si>
+    <t>PODXL</t>
+  </si>
+  <si>
+    <t>MDH2</t>
+  </si>
+  <si>
+    <t>IRF2BPL</t>
+  </si>
+  <si>
+    <t>CACNA1G</t>
+  </si>
+  <si>
+    <t>DNAJC13</t>
+  </si>
+  <si>
+    <t>UCHL1</t>
+  </si>
+  <si>
+    <t>EXOSC3</t>
+  </si>
+  <si>
+    <t>ATP10A</t>
+  </si>
+  <si>
+    <t>SCN1A</t>
+  </si>
+  <si>
+    <t>SEPSECS</t>
+  </si>
+  <si>
+    <t>CYFIP1</t>
+  </si>
+  <si>
+    <t>SNRPN</t>
+  </si>
+  <si>
+    <t>OCA2</t>
+  </si>
+  <si>
+    <t>GDNF</t>
+  </si>
+  <si>
+    <t>GATM</t>
+  </si>
+  <si>
+    <t>DRD3</t>
+  </si>
+  <si>
+    <t>PDYN</t>
+  </si>
+  <si>
+    <t>COX6B1</t>
+  </si>
+  <si>
+    <t>PDSS2</t>
+  </si>
+  <si>
+    <t>COA5</t>
+  </si>
+  <si>
+    <t>SCO2</t>
+  </si>
+  <si>
+    <t>XK</t>
+  </si>
+  <si>
+    <t>DRD1</t>
+  </si>
+  <si>
+    <t>OPRM1</t>
+  </si>
+  <si>
+    <t>NGF</t>
+  </si>
+  <si>
+    <t>DYT15</t>
+  </si>
+  <si>
+    <t>DYT13</t>
+  </si>
+  <si>
+    <t>DYT17</t>
+  </si>
+  <si>
+    <t>DYT7</t>
+  </si>
+  <si>
+    <t>DYT2</t>
+  </si>
+  <si>
+    <t>ATP2B3</t>
+  </si>
+  <si>
+    <t>CYP2D6</t>
+  </si>
+  <si>
+    <t>IGF1R</t>
+  </si>
+  <si>
+    <t>SOD2</t>
+  </si>
+  <si>
+    <t>PARK16</t>
+  </si>
+  <si>
+    <t>DRD4</t>
+  </si>
+  <si>
+    <t>INS</t>
+  </si>
+  <si>
+    <t>IGF2</t>
+  </si>
+  <si>
+    <t>CNR1</t>
+  </si>
+  <si>
+    <t>GFAP</t>
+  </si>
+  <si>
+    <t>CIZ1</t>
+  </si>
+  <si>
+    <t>INSR</t>
+  </si>
+  <si>
+    <t>PARK3</t>
+  </si>
+  <si>
+    <t>EDN1</t>
+  </si>
+  <si>
+    <t>PARK12</t>
+  </si>
+  <si>
+    <t>PARK10</t>
+  </si>
+  <si>
+    <t>MAG</t>
+  </si>
+  <si>
+    <t>FOSB</t>
+  </si>
+  <si>
+    <t>IGF2R</t>
+  </si>
+  <si>
+    <t>AIF1</t>
+  </si>
+  <si>
+    <t>DYT21</t>
+  </si>
+  <si>
+    <t>SNCB</t>
+  </si>
+  <si>
+    <t>HSD17B10</t>
+  </si>
+  <si>
+    <t>TRPM7</t>
+  </si>
+  <si>
+    <t>FOXP1</t>
+  </si>
+  <si>
+    <t>DCC</t>
+  </si>
+  <si>
+    <t>MAOB</t>
+  </si>
+  <si>
+    <t>CDKL5</t>
+  </si>
+  <si>
+    <t>HDC</t>
+  </si>
+  <si>
+    <t>SAMHD1</t>
+  </si>
+  <si>
+    <t>MPZ</t>
+  </si>
+  <si>
+    <t>PMP22</t>
+  </si>
+  <si>
+    <t>BDNF</t>
+  </si>
+  <si>
+    <t>GSTM1</t>
+  </si>
+  <si>
+    <t>DYT10</t>
+  </si>
+  <si>
+    <t>GSTP1</t>
+  </si>
+  <si>
+    <t>TNF</t>
+  </si>
+  <si>
+    <t>NQO1</t>
+  </si>
+  <si>
+    <t>MAOA</t>
+  </si>
+  <si>
+    <t>ABCB1</t>
+  </si>
+  <si>
+    <t>LINGO1</t>
+  </si>
+  <si>
+    <t>HFE</t>
+  </si>
+  <si>
+    <t>PGAP1</t>
+  </si>
+  <si>
+    <t>GAK</t>
+  </si>
+  <si>
+    <t>CYP2E1</t>
+  </si>
+  <si>
+    <t>IL6</t>
+  </si>
+  <si>
+    <t>POLG</t>
+  </si>
+  <si>
+    <t>HTR2A</t>
+  </si>
+  <si>
+    <t>APOE</t>
+  </si>
+  <si>
+    <t>HMOX1</t>
+  </si>
+  <si>
+    <t>HLA-DRA</t>
+  </si>
+  <si>
+    <t>STX6</t>
+  </si>
+  <si>
+    <t>EIF2AK3</t>
+  </si>
+  <si>
+    <t>MOBP</t>
+  </si>
+  <si>
+    <t>SOD1</t>
+  </si>
+  <si>
+    <t>HSPA9</t>
+  </si>
+  <si>
+    <t>GABRB3</t>
+  </si>
+  <si>
+    <t>RGS2</t>
+  </si>
+  <si>
+    <t>FGF20</t>
+  </si>
+  <si>
+    <t>DBH</t>
+  </si>
+  <si>
+    <t>IL1B</t>
+  </si>
+  <si>
+    <t>CCK</t>
+  </si>
+  <si>
+    <t>PARP1</t>
+  </si>
+  <si>
+    <t>GABRA1</t>
+  </si>
+  <si>
+    <t>HSPA1A</t>
+  </si>
+  <si>
+    <t>MAP3K5</t>
+  </si>
+  <si>
+    <t>LOX</t>
+  </si>
+  <si>
+    <t>LOXL2</t>
+  </si>
+  <si>
+    <t>HOXD10</t>
+  </si>
+  <si>
+    <t>FAAH</t>
+  </si>
+  <si>
+    <t>GPX1</t>
+  </si>
+  <si>
+    <t>GSTA4</t>
+  </si>
+  <si>
+    <t>FIG4</t>
+  </si>
+  <si>
+    <t>OGG1</t>
+  </si>
+  <si>
+    <t>ECT</t>
+  </si>
+  <si>
+    <t>ICCA</t>
+  </si>
+  <si>
+    <t>DDIT4</t>
+  </si>
+  <si>
+    <t>CSE</t>
+  </si>
+  <si>
+    <t>CHRNA7</t>
+  </si>
+  <si>
+    <t>AIFM1</t>
+  </si>
+  <si>
+    <t>ME2</t>
+  </si>
+  <si>
+    <t>GTS</t>
+  </si>
+  <si>
+    <t>ANCR</t>
+  </si>
+  <si>
+    <t>GABRD</t>
+  </si>
+  <si>
+    <t>PPP1R1B</t>
+  </si>
+  <si>
+    <t>RCAN1</t>
+  </si>
+  <si>
+    <t>HGF</t>
+  </si>
+  <si>
+    <t>GSR</t>
+  </si>
+  <si>
+    <t>LKMCD</t>
+  </si>
+  <si>
+    <t>NTRK1</t>
+  </si>
+  <si>
+    <t>IP6K2</t>
+  </si>
+  <si>
+    <t>TKCR</t>
+  </si>
+  <si>
+    <t>CACNB4</t>
+  </si>
+  <si>
+    <t>GLRA1</t>
+  </si>
+  <si>
+    <t>NTRK2</t>
+  </si>
+  <si>
+    <t>PRL</t>
+  </si>
+  <si>
+    <t>KCNJ4</t>
+  </si>
+  <si>
+    <t>UTS2</t>
+  </si>
+  <si>
+    <t>RASGRF1</t>
+  </si>
+  <si>
+    <t>EGI</t>
+  </si>
+  <si>
+    <t>EPRPDC</t>
+  </si>
+  <si>
+    <t>CHRNA4</t>
+  </si>
+  <si>
+    <t>CLAM</t>
+  </si>
+  <si>
+    <t>DIABLO</t>
+  </si>
+  <si>
+    <t>PENK</t>
+  </si>
+  <si>
+    <t>FGB</t>
+  </si>
+  <si>
+    <t>FOLR1</t>
+  </si>
+  <si>
+    <t>PNKD2</t>
+  </si>
+  <si>
+    <t>FBP1</t>
+  </si>
+  <si>
+    <t>PRKCD</t>
+  </si>
+  <si>
+    <t>EIG4</t>
+  </si>
+  <si>
+    <t>SLC12A2</t>
+  </si>
+  <si>
+    <t>RPS8</t>
+  </si>
+  <si>
+    <t>HUWE1</t>
+  </si>
+  <si>
+    <t>RGS9</t>
+  </si>
+  <si>
+    <t>PARK4</t>
+  </si>
+  <si>
+    <t>RPE65</t>
+  </si>
+  <si>
+    <t>EIG5</t>
+  </si>
+  <si>
+    <t>ARC</t>
+  </si>
+  <si>
+    <t>EIG2</t>
+  </si>
+  <si>
+    <t>IL1A</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>EIG3</t>
+  </si>
+  <si>
+    <t>JRK</t>
+  </si>
+  <si>
+    <t>TALDO1</t>
+  </si>
+  <si>
+    <t>AGER</t>
+  </si>
+  <si>
+    <t>PSNP2</t>
+  </si>
+  <si>
+    <t>RPL23A</t>
+  </si>
+  <si>
+    <t>EKD2</t>
+  </si>
+  <si>
+    <t>BECN1</t>
+  </si>
+  <si>
+    <t>LRAT</t>
+  </si>
+  <si>
+    <t>RPL6</t>
+  </si>
+  <si>
+    <t>NRG1</t>
+  </si>
+  <si>
+    <t>PSNP3</t>
+  </si>
+  <si>
+    <t>WSN</t>
+  </si>
+  <si>
+    <t>DELXQ28</t>
+  </si>
+  <si>
+    <t>GAD1</t>
+  </si>
+  <si>
+    <t>HDL3</t>
+  </si>
+  <si>
+    <t>ACHE</t>
+  </si>
+  <si>
+    <t>RPL14</t>
+  </si>
+  <si>
+    <t>LOAS</t>
+  </si>
+  <si>
+    <t>ALDH5A1</t>
+  </si>
+  <si>
+    <t>ANXA5</t>
+  </si>
+  <si>
+    <t>AVP</t>
+  </si>
+  <si>
+    <t>CACNA2D2</t>
+  </si>
+  <si>
+    <t>LMNB1</t>
+  </si>
+  <si>
+    <t>REPS1</t>
+  </si>
+  <si>
+    <t>PCLO</t>
+  </si>
+  <si>
+    <t>ATP6AP2</t>
+  </si>
+  <si>
+    <t>SOX3</t>
+  </si>
+  <si>
+    <t>CRAT</t>
+  </si>
+  <si>
+    <t>RAB39B</t>
+  </si>
+  <si>
+    <t>LAMA2</t>
+  </si>
+  <si>
+    <t>FKRP</t>
+  </si>
+  <si>
+    <t>POMT1</t>
+  </si>
+  <si>
+    <t>ISPD</t>
+  </si>
+  <si>
+    <t>CHKB</t>
+  </si>
+  <si>
+    <t>LARGE</t>
+  </si>
+  <si>
+    <t>POMT2</t>
+  </si>
+  <si>
+    <t>POMGNT1</t>
+  </si>
+  <si>
+    <t>ITGA7</t>
+  </si>
+  <si>
+    <t>LMNA</t>
+  </si>
+  <si>
+    <t>POMGNT2</t>
+  </si>
+  <si>
+    <t>SEPN1</t>
+  </si>
+  <si>
+    <t>FKTN</t>
+  </si>
+  <si>
+    <t>EGR2</t>
+  </si>
+  <si>
+    <t>CENPC</t>
+  </si>
+  <si>
+    <t>SLC1A3</t>
+  </si>
+  <si>
+    <t>STAP1</t>
+  </si>
+  <si>
+    <t>GPRIN3</t>
+  </si>
+  <si>
+    <t>PON1</t>
+  </si>
+  <si>
+    <t>COLGALT2</t>
+  </si>
+  <si>
+    <t>RPL9P21</t>
+  </si>
+  <si>
+    <t>RPS23P3</t>
+  </si>
+  <si>
+    <t>NSF</t>
+  </si>
+  <si>
+    <t>RPL10AP7</t>
+  </si>
+  <si>
+    <t>DGKQ</t>
+  </si>
+  <si>
+    <t>DLG2</t>
+  </si>
+  <si>
+    <t>NUCKS1</t>
+  </si>
+  <si>
+    <t>NOS1</t>
+  </si>
+  <si>
+    <t>GJB1</t>
+  </si>
+  <si>
+    <t>SEMA5A</t>
+  </si>
+  <si>
+    <t>IPO5</t>
+  </si>
+  <si>
+    <t>BRINP1</t>
+  </si>
+  <si>
+    <t>COMT</t>
+  </si>
+  <si>
+    <t>NYAP2</t>
+  </si>
+  <si>
+    <t>RIT2</t>
+  </si>
+  <si>
+    <t>SLC2A13</t>
+  </si>
+  <si>
+    <t>FAM47E</t>
+  </si>
+  <si>
+    <t>RAB7L1</t>
+  </si>
+  <si>
+    <t>MCCC1</t>
+  </si>
+  <si>
+    <t>NOS2</t>
+  </si>
+  <si>
+    <t>PHF5GP</t>
+  </si>
+  <si>
+    <t>CRHR1-IT1</t>
+  </si>
+  <si>
+    <t>HTR2C</t>
+  </si>
+  <si>
+    <t>ISM1</t>
+  </si>
+  <si>
+    <t>NELL1</t>
+  </si>
+  <si>
+    <t>TMEM175</t>
+  </si>
+  <si>
+    <t>NAT2</t>
+  </si>
+  <si>
+    <t>MGAT5</t>
+  </si>
+  <si>
+    <t>HTR6</t>
+  </si>
+  <si>
+    <t>PLEKHM1</t>
+  </si>
+  <si>
+    <t>CYP1A1</t>
+  </si>
+  <si>
+    <t>WNT3</t>
+  </si>
+  <si>
+    <t>ERMP1</t>
+  </si>
+  <si>
+    <t>PDZRN4</t>
+  </si>
+  <si>
+    <t>ITGA8</t>
+  </si>
+  <si>
+    <t>CYP51A1P1</t>
+  </si>
+  <si>
+    <t>CYP17A1</t>
+  </si>
+  <si>
+    <t>TMEM163</t>
+  </si>
+  <si>
+    <t>SLC41A1</t>
+  </si>
+  <si>
+    <t>AKAP13</t>
+  </si>
+  <si>
+    <t>RUFY3</t>
+  </si>
+  <si>
+    <t>GABRG3</t>
+  </si>
+  <si>
+    <t>RNF114</t>
+  </si>
+  <si>
+    <t>CTSD</t>
+  </si>
+  <si>
+    <t>CAST</t>
+  </si>
+  <si>
+    <t>ESR2</t>
+  </si>
+  <si>
+    <t>DUSP10</t>
+  </si>
+  <si>
+    <t>SLCO1A2</t>
+  </si>
+  <si>
+    <t>CD8B</t>
+  </si>
+  <si>
+    <t>CTNNA3</t>
+  </si>
+  <si>
+    <t>ZNF646</t>
+  </si>
+  <si>
+    <t>SH3GL2</t>
+  </si>
+  <si>
+    <t>CCDC62</t>
+  </si>
+  <si>
+    <t>IRF4</t>
+  </si>
+  <si>
+    <t>ACE</t>
+  </si>
+  <si>
+    <t>RPL23AP28</t>
+  </si>
+  <si>
+    <t>NPY5R</t>
+  </si>
+  <si>
+    <t>PAX7</t>
+  </si>
+  <si>
+    <t>FRAXA</t>
+  </si>
+  <si>
+    <t>RPS3AP46</t>
+  </si>
+  <si>
+    <t>CYCSP38</t>
+  </si>
+  <si>
+    <t>PTPRR</t>
+  </si>
+  <si>
+    <t>PAK1</t>
+  </si>
+  <si>
+    <t>FOSL2</t>
+  </si>
+  <si>
+    <t>NASPP1</t>
+  </si>
+  <si>
+    <t>TYRL</t>
+  </si>
+  <si>
+    <t>CHORDC1</t>
+  </si>
+  <si>
+    <t>RPS3P7</t>
+  </si>
+  <si>
+    <t>SLC6A4</t>
+  </si>
+  <si>
+    <t>EXT1</t>
+  </si>
+  <si>
+    <t>NPM1P10</t>
+  </si>
+  <si>
+    <t>CRHR1</t>
+  </si>
+  <si>
+    <t>BANK1</t>
+  </si>
+  <si>
+    <t>ZDHHC8</t>
+  </si>
+  <si>
+    <t>MBL2</t>
+  </si>
+  <si>
+    <t>PM20D1</t>
+  </si>
+  <si>
+    <t>CDCP2</t>
+  </si>
+  <si>
+    <t>TCEAL2</t>
+  </si>
+  <si>
+    <t>SFXN2</t>
+  </si>
+  <si>
+    <t>EIF4A1P6</t>
+  </si>
+  <si>
+    <t>CYCSP42</t>
+  </si>
+  <si>
+    <t>A2M</t>
+  </si>
+  <si>
+    <t>TRIQK</t>
+  </si>
+  <si>
+    <t>PLCB4</t>
+  </si>
+  <si>
+    <t>RAI1</t>
+  </si>
+  <si>
+    <t>HIVEP2</t>
+  </si>
+  <si>
+    <t>GRIK1</t>
+  </si>
+  <si>
+    <t>DHFRP2</t>
+  </si>
+  <si>
+    <t>PRDM2</t>
+  </si>
+  <si>
+    <t>RHOU</t>
+  </si>
+  <si>
+    <t>SLC17A6</t>
+  </si>
+  <si>
+    <t>POU1F1</t>
+  </si>
+  <si>
+    <t>GFPT2</t>
+  </si>
+  <si>
+    <t>OR9G9</t>
+  </si>
+  <si>
+    <t>RREB1</t>
+  </si>
+  <si>
+    <t>VWA5A</t>
+  </si>
+  <si>
+    <t>KIAA1715</t>
+  </si>
+  <si>
+    <t>CTIF</t>
+  </si>
+  <si>
+    <t>HSP90AA4P</t>
+  </si>
+  <si>
+    <t>ZNF385B</t>
+  </si>
+  <si>
+    <t>IL2</t>
+  </si>
+  <si>
+    <t>CNKSR3</t>
+  </si>
+  <si>
+    <t>LDLRAD4</t>
+  </si>
+  <si>
+    <t>EXD2</t>
+  </si>
+  <si>
+    <t>PHACTR2</t>
+  </si>
+  <si>
+    <t>THRB</t>
+  </si>
+  <si>
+    <t>ADRA2A</t>
+  </si>
+  <si>
+    <t>ADAMTS16</t>
+  </si>
+  <si>
+    <t>AIMP1</t>
+  </si>
+  <si>
+    <t>OR7E28P</t>
+  </si>
+  <si>
+    <t>TAS1R2</t>
+  </si>
+  <si>
+    <t>FAM69A</t>
+  </si>
+  <si>
+    <t>PCDH18</t>
+  </si>
+  <si>
+    <t>UNC13B</t>
+  </si>
+  <si>
+    <t>CSTL1</t>
+  </si>
+  <si>
+    <t>HYI</t>
+  </si>
+  <si>
+    <t>DIO2</t>
+  </si>
+  <si>
+    <t>ITSN2</t>
+  </si>
+  <si>
+    <t>PRRG4</t>
+  </si>
+  <si>
+    <t>CDC14C</t>
+  </si>
+  <si>
+    <t>RPS2P34</t>
+  </si>
+  <si>
+    <t>ADH4</t>
+  </si>
+  <si>
+    <t>NQO2</t>
+  </si>
+  <si>
+    <t>TMPRSS6</t>
+  </si>
+  <si>
+    <t>NOS3</t>
+  </si>
+  <si>
+    <t>PLXNC1</t>
+  </si>
+  <si>
+    <t>SNX10</t>
+  </si>
+  <si>
+    <t>STBD1</t>
+  </si>
+  <si>
+    <t>PAICSP3</t>
+  </si>
+  <si>
+    <t>C10ORF32</t>
+  </si>
+  <si>
+    <t>DSG3</t>
+  </si>
+  <si>
+    <t>MAPK6PS2</t>
+  </si>
+  <si>
+    <t>MAPRE2</t>
+  </si>
+  <si>
+    <t>TFPI</t>
+  </si>
+  <si>
+    <t>TBC1D22A</t>
+  </si>
+  <si>
+    <t>MAPRE1P1</t>
+  </si>
+  <si>
+    <t>IL1RL2</t>
+  </si>
+  <si>
+    <t>TLR4</t>
+  </si>
+  <si>
+    <t>RPS12P5</t>
+  </si>
+  <si>
+    <t>CDCA7L</t>
+  </si>
+  <si>
+    <t>ATF6</t>
+  </si>
+  <si>
+    <t>PLG</t>
+  </si>
+  <si>
+    <t>CYB5RL</t>
+  </si>
+  <si>
+    <t>INS-IGF2</t>
+  </si>
+  <si>
+    <t>BTNL2</t>
+  </si>
+  <si>
+    <t>TMEM128</t>
+  </si>
+  <si>
+    <t>RPS3P6</t>
+  </si>
+  <si>
+    <t>MT1F</t>
+  </si>
+  <si>
+    <t>BANF1P1</t>
+  </si>
+  <si>
+    <t>FRMPD4</t>
+  </si>
+  <si>
+    <t>ACP1</t>
+  </si>
+  <si>
+    <t>SLC45A3</t>
+  </si>
+  <si>
+    <t>LMOD1</t>
+  </si>
+  <si>
+    <t>USP36</t>
+  </si>
+  <si>
+    <t>TYW1B</t>
+  </si>
+  <si>
+    <t>GSTO1</t>
+  </si>
+  <si>
+    <t>EPS8L3</t>
+  </si>
+  <si>
+    <t>ULK2</t>
+  </si>
+  <si>
+    <t>AP1M1</t>
+  </si>
+  <si>
+    <t>UNC13C</t>
+  </si>
+  <si>
+    <t>SLC50A1</t>
+  </si>
+  <si>
+    <t>RPS12P4</t>
+  </si>
+  <si>
+    <t>TMEM55A</t>
+  </si>
+  <si>
+    <t>PKDCC</t>
+  </si>
+  <si>
+    <t>DGCR5</t>
+  </si>
+  <si>
+    <t>KCNH7</t>
+  </si>
+  <si>
+    <t>FDFT1</t>
+  </si>
+  <si>
+    <t>PITX3</t>
+  </si>
+  <si>
+    <t>MGC57346</t>
+  </si>
+  <si>
+    <t>NEGR1</t>
+  </si>
+  <si>
+    <t>KBTBD11</t>
+  </si>
+  <si>
+    <t>ALPPL2</t>
+  </si>
+  <si>
+    <t>MRPS36P2</t>
+  </si>
+  <si>
+    <t>IRF8</t>
+  </si>
+  <si>
+    <t>GPR156</t>
+  </si>
+  <si>
+    <t>KANSL1</t>
+  </si>
+  <si>
+    <t>PARP4</t>
+  </si>
+  <si>
+    <t>CD93</t>
+  </si>
+  <si>
+    <t>PRDM15</t>
+  </si>
+  <si>
+    <t>DNAJC1</t>
+  </si>
+  <si>
+    <t>MMRN1</t>
+  </si>
+  <si>
+    <t>BMP4</t>
+  </si>
+  <si>
+    <t>SGCZ</t>
+  </si>
+  <si>
+    <t>FBXO3</t>
+  </si>
+  <si>
+    <t>DAW1</t>
+  </si>
+  <si>
+    <t>SREBF1</t>
+  </si>
+  <si>
+    <t>PMEPA1</t>
+  </si>
+  <si>
+    <t>BMS1</t>
+  </si>
+  <si>
+    <t>EIF3FP3</t>
+  </si>
+  <si>
+    <t>FRAXE</t>
+  </si>
+  <si>
+    <t>CNNM2</t>
+  </si>
+  <si>
+    <t>RAB25</t>
+  </si>
+  <si>
+    <t>ZWINT</t>
+  </si>
+  <si>
+    <t>MACROD2</t>
+  </si>
+  <si>
+    <t>FRMD4A</t>
+  </si>
+  <si>
+    <t>TNPO2</t>
+  </si>
+  <si>
+    <t>FLJ41941</t>
+  </si>
+  <si>
+    <t>KIAA1432</t>
+  </si>
+  <si>
+    <t>FBN1</t>
+  </si>
+  <si>
+    <t>AOAH</t>
+  </si>
+  <si>
+    <t>IGSF5</t>
+  </si>
+  <si>
+    <t>PRSS53</t>
+  </si>
+  <si>
+    <t>ZDHHC8P1</t>
+  </si>
+  <si>
+    <t>HNRNPU</t>
+  </si>
+  <si>
+    <t>SPATA8</t>
+  </si>
+  <si>
+    <t>ADAMTSL1</t>
+  </si>
+  <si>
+    <t>IL2RB</t>
+  </si>
+  <si>
+    <t>AAK1</t>
+  </si>
+  <si>
+    <t>SNORD50B</t>
+  </si>
+  <si>
+    <t>OTOG</t>
+  </si>
+  <si>
+    <t>NNMT</t>
+  </si>
+  <si>
+    <t>STH</t>
+  </si>
+  <si>
+    <t>RPL26P19</t>
+  </si>
+  <si>
+    <t>CYMP</t>
+  </si>
+  <si>
+    <t>RPL34P11</t>
+  </si>
+  <si>
+    <t>DPP6</t>
+  </si>
+  <si>
+    <t>TOR1B</t>
+  </si>
+  <si>
+    <t>TRNAE39P</t>
+  </si>
+  <si>
+    <t>EFCAB4B</t>
+  </si>
+  <si>
+    <t>DPY19L2P3</t>
+  </si>
+  <si>
+    <t>C8ORF86</t>
+  </si>
+  <si>
+    <t>B3GALT2</t>
+  </si>
+  <si>
+    <t>CD14</t>
+  </si>
+  <si>
+    <t>KLHDC1</t>
+  </si>
+  <si>
+    <t>KIF12</t>
+  </si>
+  <si>
+    <t>ORM1</t>
+  </si>
+  <si>
+    <t>SCN3A</t>
+  </si>
+  <si>
+    <t>COL27A1</t>
+  </si>
+  <si>
+    <t>RUNX2</t>
+  </si>
+  <si>
+    <t>SATB1</t>
+  </si>
+  <si>
+    <t>FAM171A1</t>
+  </si>
+  <si>
+    <t>CLEC19A</t>
+  </si>
+  <si>
+    <t>SYT17</t>
+  </si>
+  <si>
+    <t>NCKIPSD</t>
+  </si>
+  <si>
+    <t>ADAMTS20</t>
+  </si>
+  <si>
+    <t>PRICKLE1</t>
+  </si>
+  <si>
+    <t>ARSG</t>
+  </si>
+  <si>
+    <t>OR9Q1</t>
+  </si>
+  <si>
+    <t>CTNND1</t>
+  </si>
+  <si>
+    <t>PPARGC1A</t>
+  </si>
+  <si>
+    <t>STK32B</t>
+  </si>
+  <si>
+    <t>HIST1H2BL</t>
+  </si>
+  <si>
+    <t>TOX3</t>
+  </si>
+  <si>
+    <t>COQ7</t>
+  </si>
+  <si>
+    <t>GALC</t>
+  </si>
+  <si>
+    <t>TPM1</t>
+  </si>
+  <si>
+    <t>IL1R2</t>
+  </si>
+  <si>
+    <t>CAMK2D</t>
+  </si>
+  <si>
+    <t>ANK2</t>
+  </si>
+  <si>
+    <t>DDRGK1</t>
+  </si>
+  <si>
+    <t>TIAL1</t>
+  </si>
+  <si>
+    <t>SCARB2</t>
+  </si>
+  <si>
+    <t>MICU3</t>
+  </si>
+  <si>
+    <t>ITPKB</t>
+  </si>
+  <si>
+    <t>LHFPL2</t>
+  </si>
+  <si>
+    <t>LAMP3</t>
+  </si>
+  <si>
+    <t>C12ORF40</t>
+  </si>
+  <si>
+    <t>CTSB</t>
+  </si>
+  <si>
+    <t>KAT8</t>
+  </si>
+  <si>
+    <t>FAM126A</t>
+  </si>
+  <si>
+    <t>BCKDK</t>
+  </si>
+  <si>
+    <t>STX1B</t>
+  </si>
+  <si>
+    <t>HLA-DQB1</t>
+  </si>
+  <si>
+    <t>ZNF184</t>
+  </si>
+  <si>
+    <t>SIPA1L2</t>
+  </si>
+  <si>
+    <t>INPP5F</t>
+  </si>
+  <si>
+    <t>HIP1R</t>
+  </si>
+  <si>
+    <t>MIR4697</t>
+  </si>
+  <si>
+    <t>HLA-DRB6</t>
+  </si>
+  <si>
+    <t>TMEM229B</t>
+  </si>
+  <si>
+    <t>DCUN1D1</t>
+  </si>
+  <si>
+    <t>ELOVL7</t>
+  </si>
+  <si>
+    <t>SYT4</t>
+  </si>
+  <si>
+    <t>CERS6</t>
+  </si>
+  <si>
+    <t>HLA-DRB5</t>
+  </si>
+  <si>
+    <t>HLA-DQA1</t>
+  </si>
+  <si>
+    <t>BST1</t>
+  </si>
+  <si>
+    <t>GPNMB</t>
+  </si>
+  <si>
+    <t>NUPL2</t>
+  </si>
+  <si>
+    <t>KLHL7</t>
+  </si>
+  <si>
+    <t>BAG3</t>
+  </si>
+  <si>
+    <t>CD38</t>
+  </si>
+  <si>
+    <t>FAM200B</t>
+  </si>
+  <si>
+    <t>ACMSD</t>
+  </si>
+  <si>
+    <t>OGFOD2</t>
+  </si>
+  <si>
+    <t>SYT10</t>
+  </si>
+  <si>
+    <t>PKP2</t>
+  </si>
+  <si>
+    <t>CCNT2</t>
+  </si>
+  <si>
+    <t>STK39</t>
+  </si>
+  <si>
+    <t>SYT11</t>
+  </si>
+  <si>
+    <t>LRRC37A3</t>
   </si>
 </sst>
 </file>
@@ -938,7 +2516,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -968,7 +2546,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Copperplate Gothic Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -983,7 +2576,58 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -998,78 +2642,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1077,14 +2652,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1104,8 +2671,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1132,13 +2716,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,7 +2740,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,7 +2782,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,49 +2812,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1234,48 +2836,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1288,25 +2848,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1350,6 +2934,44 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1379,44 +3001,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1425,10 +3009,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1437,137 +3021,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1581,6 +3165,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1902,10 +3489,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A304"/>
+  <dimension ref="A1:A1117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A781" workbookViewId="0">
+      <selection activeCell="A1117" sqref="A1117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3433,6 +5020,3497 @@
         <v>303</v>
       </c>
     </row>
+    <row r="305" ht="14.25" spans="1:1">
+      <c r="A305" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" ht="14.25" spans="1:1">
+      <c r="A306" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" ht="14.25" spans="1:1">
+      <c r="A307" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" ht="14.25" spans="1:1">
+      <c r="A308" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" ht="14.25" spans="1:1">
+      <c r="A309" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" ht="14.25" spans="1:1">
+      <c r="A310" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" ht="14.25" spans="1:1">
+      <c r="A311" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" ht="14.25" spans="1:1">
+      <c r="A312" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" ht="14.25" spans="1:1">
+      <c r="A313" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" ht="14.25" spans="1:1">
+      <c r="A314" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" ht="14.25" spans="1:1">
+      <c r="A315" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" ht="14.25" spans="1:1">
+      <c r="A316" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" ht="14.25" spans="1:1">
+      <c r="A317" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" ht="14.25" spans="1:1">
+      <c r="A318" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" ht="14.25" spans="1:1">
+      <c r="A319" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" ht="14.25" spans="1:1">
+      <c r="A320" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" ht="14.25" spans="1:1">
+      <c r="A321" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" ht="14.25" spans="1:1">
+      <c r="A322" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" ht="14.25" spans="1:1">
+      <c r="A323" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" ht="14.25" spans="1:1">
+      <c r="A324" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" ht="14.25" spans="1:1">
+      <c r="A325" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" ht="14.25" spans="1:1">
+      <c r="A326" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" ht="14.25" spans="1:1">
+      <c r="A327" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" ht="14.25" spans="1:1">
+      <c r="A328" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" ht="14.25" spans="1:1">
+      <c r="A329" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" ht="14.25" spans="1:1">
+      <c r="A330" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" ht="14.25" spans="1:1">
+      <c r="A331" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" ht="14.25" spans="1:1">
+      <c r="A332" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" ht="14.25" spans="1:1">
+      <c r="A333" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" ht="14.25" spans="1:1">
+      <c r="A334" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" ht="14.25" spans="1:1">
+      <c r="A335" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" ht="14.25" spans="1:1">
+      <c r="A336" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" ht="14.25" spans="1:1">
+      <c r="A337" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" ht="14.25" spans="1:1">
+      <c r="A338" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" ht="14.25" spans="1:1">
+      <c r="A339" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" ht="14.25" spans="1:1">
+      <c r="A340" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" ht="14.25" spans="1:1">
+      <c r="A341" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" ht="14.25" spans="1:1">
+      <c r="A342" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" ht="14.25" spans="1:1">
+      <c r="A343" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" ht="14.25" spans="1:1">
+      <c r="A344" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" ht="14.25" spans="1:1">
+      <c r="A345" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" ht="14.25" spans="1:1">
+      <c r="A346" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" ht="14.25" spans="1:1">
+      <c r="A347" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" ht="14.25" spans="1:1">
+      <c r="A348" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" ht="14.25" spans="1:1">
+      <c r="A349" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" ht="14.25" spans="1:1">
+      <c r="A350" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" ht="14.25" spans="1:1">
+      <c r="A351" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" ht="14.25" spans="1:1">
+      <c r="A352" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" ht="14.25" spans="1:1">
+      <c r="A353" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" ht="14.25" spans="1:1">
+      <c r="A354" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" ht="14.25" spans="1:1">
+      <c r="A355" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" ht="14.25" spans="1:1">
+      <c r="A356" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" ht="14.25" spans="1:1">
+      <c r="A357" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" ht="14.25" spans="1:1">
+      <c r="A358" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" ht="14.25" spans="1:1">
+      <c r="A359" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" ht="14.25" spans="1:1">
+      <c r="A360" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" ht="14.25" spans="1:1">
+      <c r="A361" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" ht="14.25" spans="1:1">
+      <c r="A362" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" ht="14.25" spans="1:1">
+      <c r="A363" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" ht="14.25" spans="1:1">
+      <c r="A364" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" ht="14.25" spans="1:1">
+      <c r="A365" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" ht="14.25" spans="1:1">
+      <c r="A366" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" ht="14.25" spans="1:1">
+      <c r="A367" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" ht="14.25" spans="1:1">
+      <c r="A368" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" ht="14.25" spans="1:1">
+      <c r="A369" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" ht="14.25" spans="1:1">
+      <c r="A370" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" ht="14.25" spans="1:1">
+      <c r="A371" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" ht="14.25" spans="1:1">
+      <c r="A372" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" ht="14.25" spans="1:1">
+      <c r="A373" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" ht="14.25" spans="1:1">
+      <c r="A374" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" ht="14.25" spans="1:1">
+      <c r="A375" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" ht="14.25" spans="1:1">
+      <c r="A376" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" ht="14.25" spans="1:1">
+      <c r="A377" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" ht="14.25" spans="1:1">
+      <c r="A378" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" ht="14.25" spans="1:1">
+      <c r="A379" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" ht="14.25" spans="1:1">
+      <c r="A380" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" ht="14.25" spans="1:1">
+      <c r="A381" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" ht="14.25" spans="1:1">
+      <c r="A382" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" ht="14.25" spans="1:1">
+      <c r="A383" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" ht="14.25" spans="1:1">
+      <c r="A384" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" ht="14.25" spans="1:1">
+      <c r="A385" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" ht="14.25" spans="1:1">
+      <c r="A386" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" ht="14.25" spans="1:1">
+      <c r="A387" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" ht="14.25" spans="1:1">
+      <c r="A388" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" ht="14.25" spans="1:1">
+      <c r="A389" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" ht="14.25" spans="1:1">
+      <c r="A390" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" ht="14.25" spans="1:1">
+      <c r="A391" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" ht="14.25" spans="1:1">
+      <c r="A392" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" ht="14.25" spans="1:1">
+      <c r="A393" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" ht="14.25" spans="1:1">
+      <c r="A394" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" ht="14.25" spans="1:1">
+      <c r="A395" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" ht="14.25" spans="1:1">
+      <c r="A396" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" ht="14.25" spans="1:1">
+      <c r="A397" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" ht="14.25" spans="1:1">
+      <c r="A398" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" ht="14.25" spans="1:1">
+      <c r="A399" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" ht="14.25" spans="1:1">
+      <c r="A400" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" ht="14.25" spans="1:1">
+      <c r="A401" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" ht="14.25" spans="1:1">
+      <c r="A402" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" ht="14.25" spans="1:1">
+      <c r="A403" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" ht="14.25" spans="1:1">
+      <c r="A404" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" ht="14.25" spans="1:1">
+      <c r="A405" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" ht="14.25" spans="1:1">
+      <c r="A406" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" ht="14.25" spans="1:1">
+      <c r="A407" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" ht="14.25" spans="1:1">
+      <c r="A408" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" ht="14.25" spans="1:1">
+      <c r="A409" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" ht="14.25" spans="1:1">
+      <c r="A410" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" ht="14.25" spans="1:1">
+      <c r="A411" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" ht="14.25" spans="1:1">
+      <c r="A412" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" ht="14.25" spans="1:1">
+      <c r="A413" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" ht="14.25" spans="1:1">
+      <c r="A414" s="5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" ht="14.25" spans="1:1">
+      <c r="A415" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" ht="14.25" spans="1:1">
+      <c r="A416" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" ht="14.25" spans="1:1">
+      <c r="A417" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" ht="14.25" spans="1:1">
+      <c r="A418" s="5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" ht="14.25" spans="1:1">
+      <c r="A419" s="5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" ht="14.25" spans="1:1">
+      <c r="A420" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" ht="14.25" spans="1:1">
+      <c r="A421" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" ht="14.25" spans="1:1">
+      <c r="A422" s="5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" ht="14.25" spans="1:1">
+      <c r="A423" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" ht="14.25" spans="1:1">
+      <c r="A424" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" ht="14.25" spans="1:1">
+      <c r="A425" s="5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426" ht="14.25" spans="1:1">
+      <c r="A426" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" ht="14.25" spans="1:1">
+      <c r="A427" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" ht="14.25" spans="1:1">
+      <c r="A428" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" ht="14.25" spans="1:1">
+      <c r="A429" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" ht="14.25" spans="1:1">
+      <c r="A430" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" ht="14.25" spans="1:1">
+      <c r="A431" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" ht="14.25" spans="1:1">
+      <c r="A432" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" ht="14.25" spans="1:1">
+      <c r="A433" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" ht="14.25" spans="1:1">
+      <c r="A434" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" ht="14.25" spans="1:1">
+      <c r="A435" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" ht="14.25" spans="1:1">
+      <c r="A436" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" ht="14.25" spans="1:1">
+      <c r="A437" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" ht="14.25" spans="1:1">
+      <c r="A438" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" ht="14.25" spans="1:1">
+      <c r="A439" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" ht="14.25" spans="1:1">
+      <c r="A440" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" ht="14.25" spans="1:1">
+      <c r="A441" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" ht="14.25" spans="1:1">
+      <c r="A442" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" ht="14.25" spans="1:1">
+      <c r="A443" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" ht="14.25" spans="1:1">
+      <c r="A444" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" ht="14.25" spans="1:1">
+      <c r="A445" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" ht="14.25" spans="1:1">
+      <c r="A446" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" ht="14.25" spans="1:1">
+      <c r="A447" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" ht="14.25" spans="1:1">
+      <c r="A448" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" ht="14.25" spans="1:1">
+      <c r="A449" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" ht="14.25" spans="1:1">
+      <c r="A450" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" ht="14.25" spans="1:1">
+      <c r="A451" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" ht="14.25" spans="1:1">
+      <c r="A452" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" ht="14.25" spans="1:1">
+      <c r="A453" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" ht="14.25" spans="1:1">
+      <c r="A454" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" ht="14.25" spans="1:1">
+      <c r="A455" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" ht="14.25" spans="1:1">
+      <c r="A456" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" ht="14.25" spans="1:1">
+      <c r="A457" s="5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" ht="14.25" spans="1:1">
+      <c r="A458" s="5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" ht="14.25" spans="1:1">
+      <c r="A459" s="5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" ht="14.25" spans="1:1">
+      <c r="A460" s="5" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" ht="14.25" spans="1:1">
+      <c r="A461" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" ht="14.25" spans="1:1">
+      <c r="A462" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" ht="14.25" spans="1:1">
+      <c r="A463" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" ht="14.25" spans="1:1">
+      <c r="A464" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" ht="14.25" spans="1:1">
+      <c r="A465" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" ht="14.25" spans="1:1">
+      <c r="A466" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" ht="14.25" spans="1:1">
+      <c r="A467" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" ht="14.25" spans="1:1">
+      <c r="A468" s="5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" ht="14.25" spans="1:1">
+      <c r="A469" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" ht="14.25" spans="1:1">
+      <c r="A470" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" ht="14.25" spans="1:1">
+      <c r="A471" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" ht="14.25" spans="1:1">
+      <c r="A472" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" ht="14.25" spans="1:1">
+      <c r="A473" s="5" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" ht="14.25" spans="1:1">
+      <c r="A474" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" ht="14.25" spans="1:1">
+      <c r="A475" s="5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" ht="14.25" spans="1:1">
+      <c r="A476" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" ht="14.25" spans="1:1">
+      <c r="A477" s="5" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" ht="14.25" spans="1:1">
+      <c r="A478" s="5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" ht="14.25" spans="1:1">
+      <c r="A479" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" ht="14.25" spans="1:1">
+      <c r="A480" s="5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" ht="14.25" spans="1:1">
+      <c r="A481" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" ht="14.25" spans="1:1">
+      <c r="A482" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" ht="14.25" spans="1:1">
+      <c r="A483" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" ht="14.25" spans="1:1">
+      <c r="A484" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" ht="14.25" spans="1:1">
+      <c r="A485" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486" ht="14.25" spans="1:1">
+      <c r="A486" s="5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487" ht="14.25" spans="1:1">
+      <c r="A487" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488" ht="14.25" spans="1:1">
+      <c r="A488" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489" ht="14.25" spans="1:1">
+      <c r="A489" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" ht="14.25" spans="1:1">
+      <c r="A490" s="5" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" ht="14.25" spans="1:1">
+      <c r="A491" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492" ht="14.25" spans="1:1">
+      <c r="A492" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493" ht="14.25" spans="1:1">
+      <c r="A493" s="5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494" ht="14.25" spans="1:1">
+      <c r="A494" s="5" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" ht="14.25" spans="1:1">
+      <c r="A495" s="5" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496" ht="14.25" spans="1:1">
+      <c r="A496" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" ht="14.25" spans="1:1">
+      <c r="A497" s="5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498" ht="14.25" spans="1:1">
+      <c r="A498" s="5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499" ht="14.25" spans="1:1">
+      <c r="A499" s="5" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500" ht="14.25" spans="1:1">
+      <c r="A500" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="501" ht="14.25" spans="1:1">
+      <c r="A501" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="502" ht="14.25" spans="1:1">
+      <c r="A502" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="503" ht="14.25" spans="1:1">
+      <c r="A503" s="5" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="504" ht="14.25" spans="1:1">
+      <c r="A504" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="505" ht="14.25" spans="1:1">
+      <c r="A505" s="5" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="506" ht="14.25" spans="1:1">
+      <c r="A506" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="507" ht="14.25" spans="1:1">
+      <c r="A507" s="5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="508" ht="14.25" spans="1:1">
+      <c r="A508" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="509" ht="14.25" spans="1:1">
+      <c r="A509" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="510" ht="14.25" spans="1:1">
+      <c r="A510" s="5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="511" ht="14.25" spans="1:1">
+      <c r="A511" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="512" ht="14.25" spans="1:1">
+      <c r="A512" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="513" ht="14.25" spans="1:1">
+      <c r="A513" s="5" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="514" ht="14.25" spans="1:1">
+      <c r="A514" s="5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="515" ht="14.25" spans="1:1">
+      <c r="A515" s="5" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="516" ht="14.25" spans="1:1">
+      <c r="A516" s="5" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="517" ht="14.25" spans="1:1">
+      <c r="A517" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="518" ht="14.25" spans="1:1">
+      <c r="A518" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="519" ht="14.25" spans="1:1">
+      <c r="A519" s="5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="520" ht="14.25" spans="1:1">
+      <c r="A520" s="5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="521" ht="14.25" spans="1:1">
+      <c r="A521" s="5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="522" ht="14.25" spans="1:1">
+      <c r="A522" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="523" ht="14.25" spans="1:1">
+      <c r="A523" s="5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="524" ht="14.25" spans="1:1">
+      <c r="A524" s="5" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="525" ht="14.25" spans="1:1">
+      <c r="A525" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="526" ht="14.25" spans="1:1">
+      <c r="A526" s="5" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="527" ht="14.25" spans="1:1">
+      <c r="A527" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="528" ht="14.25" spans="1:1">
+      <c r="A528" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="529" ht="14.25" spans="1:1">
+      <c r="A529" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="530" ht="14.25" spans="1:1">
+      <c r="A530" s="5" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="531" ht="14.25" spans="1:1">
+      <c r="A531" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="532" ht="14.25" spans="1:1">
+      <c r="A532" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="533" ht="14.25" spans="1:1">
+      <c r="A533" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="534" ht="14.25" spans="1:1">
+      <c r="A534" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="535" ht="14.25" spans="1:1">
+      <c r="A535" s="5" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="536" ht="14.25" spans="1:1">
+      <c r="A536" s="5" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="537" ht="14.25" spans="1:1">
+      <c r="A537" s="5" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="538" ht="14.25" spans="1:1">
+      <c r="A538" s="5" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="539" ht="14.25" spans="1:1">
+      <c r="A539" s="5" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="540" ht="14.25" spans="1:1">
+      <c r="A540" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="541" ht="14.25" spans="1:1">
+      <c r="A541" s="5" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="542" ht="14.25" spans="1:1">
+      <c r="A542" s="5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="543" ht="14.25" spans="1:1">
+      <c r="A543" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="544" ht="14.25" spans="1:1">
+      <c r="A544" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="545" ht="14.25" spans="1:1">
+      <c r="A545" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="546" ht="14.25" spans="1:1">
+      <c r="A546" s="5" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="547" ht="14.25" spans="1:1">
+      <c r="A547" s="5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="548" ht="14.25" spans="1:1">
+      <c r="A548" s="5" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="549" ht="14.25" spans="1:1">
+      <c r="A549" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="550" ht="14.25" spans="1:1">
+      <c r="A550" s="5" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="551" ht="14.25" spans="1:1">
+      <c r="A551" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="552" ht="14.25" spans="1:1">
+      <c r="A552" s="5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="553" ht="14.25" spans="1:1">
+      <c r="A553" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="554" ht="14.25" spans="1:1">
+      <c r="A554" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="555" ht="14.25" spans="1:1">
+      <c r="A555" s="5" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="556" ht="14.25" spans="1:1">
+      <c r="A556" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="557" ht="14.25" spans="1:1">
+      <c r="A557" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="558" ht="14.25" spans="1:1">
+      <c r="A558" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="559" ht="14.25" spans="1:1">
+      <c r="A559" s="5" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="560" ht="14.25" spans="1:1">
+      <c r="A560" s="5" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="561" ht="14.25" spans="1:1">
+      <c r="A561" s="5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="562" ht="14.25" spans="1:1">
+      <c r="A562" s="5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="563" ht="14.25" spans="1:1">
+      <c r="A563" s="5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="564" ht="14.25" spans="1:1">
+      <c r="A564" s="5" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="565" ht="14.25" spans="1:1">
+      <c r="A565" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="566" ht="14.25" spans="1:1">
+      <c r="A566" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="567" ht="14.25" spans="1:1">
+      <c r="A567" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="568" ht="14.25" spans="1:1">
+      <c r="A568" s="5" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="569" ht="14.25" spans="1:1">
+      <c r="A569" s="5" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="570" ht="14.25" spans="1:1">
+      <c r="A570" s="5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="571" ht="14.25" spans="1:1">
+      <c r="A571" s="5" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="572" ht="14.25" spans="1:1">
+      <c r="A572" s="5" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="573" ht="14.25" spans="1:1">
+      <c r="A573" s="5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="574" ht="14.25" spans="1:1">
+      <c r="A574" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="575" ht="14.25" spans="1:1">
+      <c r="A575" s="5" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="576" ht="14.25" spans="1:1">
+      <c r="A576" s="5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="577" ht="14.25" spans="1:1">
+      <c r="A577" s="5" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="578" ht="14.25" spans="1:1">
+      <c r="A578" s="5" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="579" ht="14.25" spans="1:1">
+      <c r="A579" s="5" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="580" ht="14.25" spans="1:1">
+      <c r="A580" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="581" ht="14.25" spans="1:1">
+      <c r="A581" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="582" ht="14.25" spans="1:1">
+      <c r="A582" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="583" ht="14.25" spans="1:1">
+      <c r="A583" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="584" ht="14.25" spans="1:1">
+      <c r="A584" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="585" ht="14.25" spans="1:1">
+      <c r="A585" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="586" ht="14.25" spans="1:1">
+      <c r="A586" s="5" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="587" ht="14.25" spans="1:1">
+      <c r="A587" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="588" ht="14.25" spans="1:1">
+      <c r="A588" s="5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="589" ht="14.25" spans="1:1">
+      <c r="A589" s="5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="590" ht="14.25" spans="1:1">
+      <c r="A590" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="591" ht="14.25" spans="1:1">
+      <c r="A591" s="5" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="592" ht="14.25" spans="1:1">
+      <c r="A592" s="5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="593" ht="14.25" spans="1:1">
+      <c r="A593" s="5" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="594" ht="14.25" spans="1:1">
+      <c r="A594" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="595" ht="14.25" spans="1:1">
+      <c r="A595" s="5" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="596" ht="14.25" spans="1:1">
+      <c r="A596" s="5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="597" ht="14.25" spans="1:1">
+      <c r="A597" s="5" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="598" ht="14.25" spans="1:1">
+      <c r="A598" s="5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="599" ht="14.25" spans="1:1">
+      <c r="A599" s="5" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="600" ht="14.25" spans="1:1">
+      <c r="A600" s="5" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="601" ht="14.25" spans="1:1">
+      <c r="A601" s="5" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="602" ht="14.25" spans="1:1">
+      <c r="A602" s="5" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="603" ht="14.25" spans="1:1">
+      <c r="A603" s="5" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="604" ht="14.25" spans="1:1">
+      <c r="A604" s="5" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="605" ht="14.25" spans="1:1">
+      <c r="A605" s="5" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="606" ht="14.25" spans="1:1">
+      <c r="A606" s="5" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="607" ht="14.25" spans="1:1">
+      <c r="A607" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="608" ht="14.25" spans="1:1">
+      <c r="A608" s="5" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="609" ht="14.25" spans="1:1">
+      <c r="A609" s="5" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="610" ht="14.25" spans="1:1">
+      <c r="A610" s="5" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="611" ht="14.25" spans="1:1">
+      <c r="A611" s="5" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="612" ht="14.25" spans="1:1">
+      <c r="A612" s="5" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="613" ht="14.25" spans="1:1">
+      <c r="A613" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="614" ht="14.25" spans="1:1">
+      <c r="A614" s="5" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="615" ht="14.25" spans="1:1">
+      <c r="A615" s="5" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="616" ht="14.25" spans="1:1">
+      <c r="A616" s="5" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="617" ht="14.25" spans="1:1">
+      <c r="A617" s="5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="618" ht="14.25" spans="1:1">
+      <c r="A618" s="5" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="619" ht="14.25" spans="1:1">
+      <c r="A619" s="5" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="620" ht="14.25" spans="1:1">
+      <c r="A620" s="5" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="621" ht="14.25" spans="1:1">
+      <c r="A621" s="5" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="622" ht="14.25" spans="1:1">
+      <c r="A622" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="623" ht="14.25" spans="1:1">
+      <c r="A623" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="624" ht="14.25" spans="1:1">
+      <c r="A624" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="625" ht="14.25" spans="1:1">
+      <c r="A625" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="626" ht="14.25" spans="1:1">
+      <c r="A626" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="627" ht="14.25" spans="1:1">
+      <c r="A627" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="628" ht="14.25" spans="1:1">
+      <c r="A628" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="629" ht="14.25" spans="1:1">
+      <c r="A629" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="630" ht="14.25" spans="1:1">
+      <c r="A630" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="631" ht="14.25" spans="1:1">
+      <c r="A631" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="632" ht="14.25" spans="1:1">
+      <c r="A632" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="633" ht="14.25" spans="1:1">
+      <c r="A633" s="5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="634" ht="14.25" spans="1:1">
+      <c r="A634" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="635" ht="14.25" spans="1:1">
+      <c r="A635" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="636" ht="14.25" spans="1:1">
+      <c r="A636" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="637" ht="14.25" spans="1:1">
+      <c r="A637" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="638" ht="14.25" spans="1:1">
+      <c r="A638" s="5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="639" ht="14.25" spans="1:1">
+      <c r="A639" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="640" ht="14.25" spans="1:1">
+      <c r="A640" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="641" ht="14.25" spans="1:1">
+      <c r="A641" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="642" ht="14.25" spans="1:1">
+      <c r="A642" s="5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="643" ht="14.25" spans="1:1">
+      <c r="A643" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="644" ht="14.25" spans="1:1">
+      <c r="A644" s="5" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="645" ht="14.25" spans="1:1">
+      <c r="A645" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="646" ht="14.25" spans="1:1">
+      <c r="A646" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="647" ht="14.25" spans="1:1">
+      <c r="A647" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="648" ht="14.25" spans="1:1">
+      <c r="A648" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="649" ht="14.25" spans="1:1">
+      <c r="A649" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="650" ht="14.25" spans="1:1">
+      <c r="A650" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="651" ht="14.25" spans="1:1">
+      <c r="A651" s="5" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="652" ht="14.25" spans="1:1">
+      <c r="A652" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="653" ht="14.25" spans="1:1">
+      <c r="A653" s="5" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="654" ht="14.25" spans="1:1">
+      <c r="A654" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="655" ht="14.25" spans="1:1">
+      <c r="A655" s="5" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="656" ht="14.25" spans="1:1">
+      <c r="A656" s="5" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="657" ht="14.25" spans="1:1">
+      <c r="A657" s="5" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="658" ht="14.25" spans="1:1">
+      <c r="A658" s="5" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="659" ht="14.25" spans="1:1">
+      <c r="A659" s="5" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="660" ht="14.25" spans="1:1">
+      <c r="A660" s="5" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="661" ht="14.25" spans="1:1">
+      <c r="A661" s="5" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="662" ht="14.25" spans="1:1">
+      <c r="A662" s="5" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="663" ht="14.25" spans="1:1">
+      <c r="A663" s="5" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="664" ht="14.25" spans="1:1">
+      <c r="A664" s="5" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="665" ht="14.25" spans="1:1">
+      <c r="A665" s="5" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="666" ht="14.25" spans="1:1">
+      <c r="A666" s="5" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="667" ht="14.25" spans="1:1">
+      <c r="A667" s="5" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="668" ht="14.25" spans="1:1">
+      <c r="A668" s="5" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="669" ht="14.25" spans="1:1">
+      <c r="A669" s="5" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="670" ht="14.25" spans="1:1">
+      <c r="A670" s="5" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="671" ht="14.25" spans="1:1">
+      <c r="A671" s="5" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="672" ht="14.25" spans="1:1">
+      <c r="A672" s="5" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="673" ht="14.25" spans="1:1">
+      <c r="A673" s="5" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="674" ht="14.25" spans="1:1">
+      <c r="A674" s="5" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="675" ht="14.25" spans="1:1">
+      <c r="A675" s="5" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="676" ht="14.25" spans="1:1">
+      <c r="A676" s="5" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="677" ht="14.25" spans="1:1">
+      <c r="A677" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="678" ht="14.25" spans="1:1">
+      <c r="A678" s="5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="679" ht="14.25" spans="1:1">
+      <c r="A679" s="5" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="680" ht="14.25" spans="1:1">
+      <c r="A680" s="5" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="681" ht="14.25" spans="1:1">
+      <c r="A681" s="5" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="682" ht="14.25" spans="1:1">
+      <c r="A682" s="5" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="683" ht="14.25" spans="1:1">
+      <c r="A683" s="5" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="684" ht="14.25" spans="1:1">
+      <c r="A684" s="5" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="685" ht="14.25" spans="1:1">
+      <c r="A685" s="5" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="686" ht="14.25" spans="1:1">
+      <c r="A686" s="5" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="687" ht="14.25" spans="1:1">
+      <c r="A687" s="5" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="688" ht="14.25" spans="1:1">
+      <c r="A688" s="5" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="689" ht="14.25" spans="1:1">
+      <c r="A689" s="5" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="690" ht="14.25" spans="1:1">
+      <c r="A690" s="5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="691" ht="14.25" spans="1:1">
+      <c r="A691" s="5" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="692" ht="14.25" spans="1:1">
+      <c r="A692" s="5" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="693" ht="14.25" spans="1:1">
+      <c r="A693" s="5" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="694" ht="14.25" spans="1:1">
+      <c r="A694" s="5" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="695" ht="14.25" spans="1:1">
+      <c r="A695" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="696" ht="14.25" spans="1:1">
+      <c r="A696" s="5" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="697" ht="14.25" spans="1:1">
+      <c r="A697" s="5" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="698" ht="14.25" spans="1:1">
+      <c r="A698" s="5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="699" ht="14.25" spans="1:1">
+      <c r="A699" s="5" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="700" ht="14.25" spans="1:1">
+      <c r="A700" s="5" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="701" ht="14.25" spans="1:1">
+      <c r="A701" s="5" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="702" ht="14.25" spans="1:1">
+      <c r="A702" s="5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="703" ht="14.25" spans="1:1">
+      <c r="A703" s="5" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="704" ht="14.25" spans="1:1">
+      <c r="A704" s="5" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="705" ht="14.25" spans="1:1">
+      <c r="A705" s="5" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="706" ht="14.25" spans="1:1">
+      <c r="A706" s="5" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="707" ht="14.25" spans="1:1">
+      <c r="A707" s="5" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="708" ht="14.25" spans="1:1">
+      <c r="A708" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="709" ht="14.25" spans="1:1">
+      <c r="A709" s="5" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="710" ht="14.25" spans="1:1">
+      <c r="A710" s="5" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="711" ht="14.25" spans="1:1">
+      <c r="A711" s="5" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="712" ht="14.25" spans="1:1">
+      <c r="A712" s="5" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="713" ht="14.25" spans="1:1">
+      <c r="A713" s="5" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="714" ht="14.25" spans="1:1">
+      <c r="A714" s="5" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="715" ht="14.25" spans="1:1">
+      <c r="A715" s="5" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="716" ht="14.25" spans="1:1">
+      <c r="A716" s="5" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="717" ht="14.25" spans="1:1">
+      <c r="A717" s="5" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="718" ht="14.25" spans="1:1">
+      <c r="A718" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="719" ht="14.25" spans="1:1">
+      <c r="A719" s="5" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="720" ht="14.25" spans="1:1">
+      <c r="A720" s="5" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="721" ht="14.25" spans="1:1">
+      <c r="A721" s="5" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="722" ht="14.25" spans="1:1">
+      <c r="A722" s="5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="723" ht="14.25" spans="1:1">
+      <c r="A723" s="5" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="724" ht="14.25" spans="1:1">
+      <c r="A724" s="5" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="725" ht="14.25" spans="1:1">
+      <c r="A725" s="5" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="726" ht="14.25" spans="1:1">
+      <c r="A726" s="5" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="727" ht="14.25" spans="1:1">
+      <c r="A727" s="5" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="728" ht="14.25" spans="1:1">
+      <c r="A728" s="5" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="729" ht="14.25" spans="1:1">
+      <c r="A729" s="5" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="730" ht="14.25" spans="1:1">
+      <c r="A730" s="5" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="731" ht="14.25" spans="1:1">
+      <c r="A731" s="5" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="732" ht="14.25" spans="1:1">
+      <c r="A732" s="5" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="733" ht="14.25" spans="1:1">
+      <c r="A733" s="5" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="734" ht="14.25" spans="1:1">
+      <c r="A734" s="5" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="735" ht="14.25" spans="1:1">
+      <c r="A735" s="5" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="736" ht="14.25" spans="1:1">
+      <c r="A736" s="5" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="737" ht="14.25" spans="1:1">
+      <c r="A737" s="5" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="738" ht="14.25" spans="1:1">
+      <c r="A738" s="5" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="739" ht="14.25" spans="1:1">
+      <c r="A739" s="5" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="740" ht="14.25" spans="1:1">
+      <c r="A740" s="5" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="741" ht="14.25" spans="1:1">
+      <c r="A741" s="5" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="742" ht="14.25" spans="1:1">
+      <c r="A742" s="5" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="743" ht="14.25" spans="1:1">
+      <c r="A743" s="5" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="744" ht="14.25" spans="1:1">
+      <c r="A744" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="745" ht="14.25" spans="1:1">
+      <c r="A745" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="746" ht="14.25" spans="1:1">
+      <c r="A746" s="5" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="747" ht="14.25" spans="1:1">
+      <c r="A747" s="5" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="748" ht="14.25" spans="1:1">
+      <c r="A748" s="5" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="749" ht="14.25" spans="1:1">
+      <c r="A749" s="5" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="750" ht="14.25" spans="1:1">
+      <c r="A750" s="5" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="751" ht="14.25" spans="1:1">
+      <c r="A751" s="5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="752" ht="14.25" spans="1:1">
+      <c r="A752" s="5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="753" ht="14.25" spans="1:1">
+      <c r="A753" s="5" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="754" ht="14.25" spans="1:1">
+      <c r="A754" s="5" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="755" ht="14.25" spans="1:1">
+      <c r="A755" s="5" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="756" ht="14.25" spans="1:1">
+      <c r="A756" s="5" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="757" ht="14.25" spans="1:1">
+      <c r="A757" s="5" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="758" ht="14.25" spans="1:1">
+      <c r="A758" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="759" ht="14.25" spans="1:1">
+      <c r="A759" s="5" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="760" ht="14.25" spans="1:1">
+      <c r="A760" s="5" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="761" ht="14.25" spans="1:1">
+      <c r="A761" s="5" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="762" ht="14.25" spans="1:1">
+      <c r="A762" s="5" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="763" ht="14.25" spans="1:1">
+      <c r="A763" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="764" ht="14.25" spans="1:1">
+      <c r="A764" s="5" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="765" ht="14.25" spans="1:1">
+      <c r="A765" s="5" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="766" ht="14.25" spans="1:1">
+      <c r="A766" s="5" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="767" ht="14.25" spans="1:1">
+      <c r="A767" s="5" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="768" ht="14.25" spans="1:1">
+      <c r="A768" s="5" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="769" ht="14.25" spans="1:1">
+      <c r="A769" s="5" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="770" ht="14.25" spans="1:1">
+      <c r="A770" s="5" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="771" ht="14.25" spans="1:1">
+      <c r="A771" s="5" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="772" ht="14.25" spans="1:1">
+      <c r="A772" s="5" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="773" ht="14.25" spans="1:1">
+      <c r="A773" s="5" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="774" ht="14.25" spans="1:1">
+      <c r="A774" s="5" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="775" ht="14.25" spans="1:1">
+      <c r="A775" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="776" ht="14.25" spans="1:1">
+      <c r="A776" s="5" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="777" ht="14.25" spans="1:1">
+      <c r="A777" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="778" ht="14.25" spans="1:1">
+      <c r="A778" s="5" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="779" ht="14.25" spans="1:1">
+      <c r="A779" s="5" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="780" ht="14.25" spans="1:1">
+      <c r="A780" s="5" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="781" ht="14.25" spans="1:1">
+      <c r="A781" s="5" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="782" ht="14.25" spans="1:1">
+      <c r="A782" s="5" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="783" ht="14.25" spans="1:1">
+      <c r="A783" s="5" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="784" ht="14.25" spans="1:1">
+      <c r="A784" s="5" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="785" ht="14.25" spans="1:1">
+      <c r="A785" s="5" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="786" ht="14.25" spans="1:1">
+      <c r="A786" s="5" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="787" ht="14.25" spans="1:1">
+      <c r="A787" s="5" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="788" ht="14.25" spans="1:1">
+      <c r="A788" s="5" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="789" ht="14.25" spans="1:1">
+      <c r="A789" s="5" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="790" ht="14.25" spans="1:1">
+      <c r="A790" s="5" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="791" ht="14.25" spans="1:1">
+      <c r="A791" s="5" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="792" ht="14.25" spans="1:1">
+      <c r="A792" s="5" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="793" ht="14.25" spans="1:1">
+      <c r="A793" s="5" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="794" ht="14.25" spans="1:1">
+      <c r="A794" s="5" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="795" ht="14.25" spans="1:1">
+      <c r="A795" s="5" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="796" ht="14.25" spans="1:1">
+      <c r="A796" s="5" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="797" ht="14.25" spans="1:1">
+      <c r="A797" s="5" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="798" ht="14.25" spans="1:1">
+      <c r="A798" s="5" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="799" ht="14.25" spans="1:1">
+      <c r="A799" s="5" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="800" ht="14.25" spans="1:1">
+      <c r="A800" s="5" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="801" ht="14.25" spans="1:1">
+      <c r="A801" s="5" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="802" ht="14.25" spans="1:1">
+      <c r="A802" s="5" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="803" ht="14.25" spans="1:1">
+      <c r="A803" s="5" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="804" ht="14.25" spans="1:1">
+      <c r="A804" s="5" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="805" ht="14.25" spans="1:1">
+      <c r="A805" s="5" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="806" ht="14.25" spans="1:1">
+      <c r="A806" s="5" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="807" ht="14.25" spans="1:1">
+      <c r="A807" s="5" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="808" ht="14.25" spans="1:1">
+      <c r="A808" s="5" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="809" ht="14.25" spans="1:1">
+      <c r="A809" s="5" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="810" ht="14.25" spans="1:1">
+      <c r="A810" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="811" ht="14.25" spans="1:1">
+      <c r="A811" s="5" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="812" ht="14.25" spans="1:1">
+      <c r="A812" s="5" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="813" ht="14.25" spans="1:1">
+      <c r="A813" s="5" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="814" ht="14.25" spans="1:1">
+      <c r="A814" s="5" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="815" ht="14.25" spans="1:1">
+      <c r="A815" s="5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="816" ht="14.25" spans="1:1">
+      <c r="A816" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="817" ht="14.25" spans="1:1">
+      <c r="A817" s="5" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="818" ht="14.25" spans="1:1">
+      <c r="A818" s="5" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="819" ht="14.25" spans="1:1">
+      <c r="A819" s="5" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="820" ht="14.25" spans="1:1">
+      <c r="A820" s="5" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="821" ht="14.25" spans="1:1">
+      <c r="A821" s="5" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="822" ht="14.25" spans="1:1">
+      <c r="A822" s="5" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="823" ht="14.25" spans="1:1">
+      <c r="A823" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="824" ht="14.25" spans="1:1">
+      <c r="A824" s="5" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="825" ht="14.25" spans="1:1">
+      <c r="A825" s="5" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="826" ht="14.25" spans="1:1">
+      <c r="A826" s="5" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="827" ht="14.25" spans="1:1">
+      <c r="A827" s="5" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="828" ht="14.25" spans="1:1">
+      <c r="A828" s="5" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="829" ht="14.25" spans="1:1">
+      <c r="A829" s="5" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="830" ht="14.25" spans="1:1">
+      <c r="A830" s="5" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1">
+      <c r="A831"/>
+    </row>
+    <row r="832" spans="1:1">
+      <c r="A832"/>
+    </row>
+    <row r="833" spans="1:1">
+      <c r="A833"/>
+    </row>
+    <row r="834" spans="1:1">
+      <c r="A834"/>
+    </row>
+    <row r="835" spans="1:1">
+      <c r="A835"/>
+    </row>
+    <row r="836" spans="1:1">
+      <c r="A836"/>
+    </row>
+    <row r="837" spans="1:1">
+      <c r="A837"/>
+    </row>
+    <row r="838" spans="1:1">
+      <c r="A838"/>
+    </row>
+    <row r="839" spans="1:1">
+      <c r="A839"/>
+    </row>
+    <row r="840" spans="1:1">
+      <c r="A840"/>
+    </row>
+    <row r="841" spans="1:1">
+      <c r="A841"/>
+    </row>
+    <row r="842" spans="1:1">
+      <c r="A842"/>
+    </row>
+    <row r="843" spans="1:1">
+      <c r="A843"/>
+    </row>
+    <row r="844" spans="1:1">
+      <c r="A844"/>
+    </row>
+    <row r="845" spans="1:1">
+      <c r="A845"/>
+    </row>
+    <row r="846" spans="1:1">
+      <c r="A846"/>
+    </row>
+    <row r="847" spans="1:1">
+      <c r="A847"/>
+    </row>
+    <row r="848" spans="1:1">
+      <c r="A848"/>
+    </row>
+    <row r="849" spans="1:1">
+      <c r="A849"/>
+    </row>
+    <row r="850" spans="1:1">
+      <c r="A850"/>
+    </row>
+    <row r="851" spans="1:1">
+      <c r="A851"/>
+    </row>
+    <row r="852" spans="1:1">
+      <c r="A852"/>
+    </row>
+    <row r="853" spans="1:1">
+      <c r="A853"/>
+    </row>
+    <row r="854" spans="1:1">
+      <c r="A854"/>
+    </row>
+    <row r="855" spans="1:1">
+      <c r="A855"/>
+    </row>
+    <row r="856" spans="1:1">
+      <c r="A856"/>
+    </row>
+    <row r="857" spans="1:1">
+      <c r="A857"/>
+    </row>
+    <row r="858" spans="1:1">
+      <c r="A858"/>
+    </row>
+    <row r="859" spans="1:1">
+      <c r="A859"/>
+    </row>
+    <row r="860" spans="1:1">
+      <c r="A860"/>
+    </row>
+    <row r="861" spans="1:1">
+      <c r="A861"/>
+    </row>
+    <row r="862" spans="1:1">
+      <c r="A862"/>
+    </row>
+    <row r="863" spans="1:1">
+      <c r="A863"/>
+    </row>
+    <row r="864" spans="1:1">
+      <c r="A864"/>
+    </row>
+    <row r="865" spans="1:1">
+      <c r="A865"/>
+    </row>
+    <row r="866" spans="1:1">
+      <c r="A866"/>
+    </row>
+    <row r="867" spans="1:1">
+      <c r="A867"/>
+    </row>
+    <row r="868" spans="1:1">
+      <c r="A868"/>
+    </row>
+    <row r="869" spans="1:1">
+      <c r="A869"/>
+    </row>
+    <row r="870" spans="1:1">
+      <c r="A870"/>
+    </row>
+    <row r="871" spans="1:1">
+      <c r="A871"/>
+    </row>
+    <row r="872" spans="1:1">
+      <c r="A872"/>
+    </row>
+    <row r="873" spans="1:1">
+      <c r="A873"/>
+    </row>
+    <row r="874" spans="1:1">
+      <c r="A874"/>
+    </row>
+    <row r="875" spans="1:1">
+      <c r="A875"/>
+    </row>
+    <row r="876" spans="1:1">
+      <c r="A876"/>
+    </row>
+    <row r="877" spans="1:1">
+      <c r="A877"/>
+    </row>
+    <row r="878" spans="1:1">
+      <c r="A878"/>
+    </row>
+    <row r="879" spans="1:1">
+      <c r="A879"/>
+    </row>
+    <row r="880" spans="1:1">
+      <c r="A880"/>
+    </row>
+    <row r="881" spans="1:1">
+      <c r="A881"/>
+    </row>
+    <row r="882" spans="1:1">
+      <c r="A882"/>
+    </row>
+    <row r="883" spans="1:1">
+      <c r="A883"/>
+    </row>
+    <row r="884" spans="1:1">
+      <c r="A884"/>
+    </row>
+    <row r="885" spans="1:1">
+      <c r="A885"/>
+    </row>
+    <row r="886" spans="1:1">
+      <c r="A886"/>
+    </row>
+    <row r="887" spans="1:1">
+      <c r="A887"/>
+    </row>
+    <row r="888" spans="1:1">
+      <c r="A888"/>
+    </row>
+    <row r="889" spans="1:1">
+      <c r="A889"/>
+    </row>
+    <row r="890" spans="1:1">
+      <c r="A890"/>
+    </row>
+    <row r="891" spans="1:1">
+      <c r="A891"/>
+    </row>
+    <row r="892" spans="1:1">
+      <c r="A892"/>
+    </row>
+    <row r="893" spans="1:1">
+      <c r="A893"/>
+    </row>
+    <row r="894" spans="1:1">
+      <c r="A894"/>
+    </row>
+    <row r="895" spans="1:1">
+      <c r="A895"/>
+    </row>
+    <row r="896" spans="1:1">
+      <c r="A896"/>
+    </row>
+    <row r="897" spans="1:1">
+      <c r="A897"/>
+    </row>
+    <row r="898" spans="1:1">
+      <c r="A898"/>
+    </row>
+    <row r="899" spans="1:1">
+      <c r="A899"/>
+    </row>
+    <row r="900" spans="1:1">
+      <c r="A900"/>
+    </row>
+    <row r="901" spans="1:1">
+      <c r="A901"/>
+    </row>
+    <row r="902" spans="1:1">
+      <c r="A902"/>
+    </row>
+    <row r="903" spans="1:1">
+      <c r="A903"/>
+    </row>
+    <row r="904" spans="1:1">
+      <c r="A904"/>
+    </row>
+    <row r="905" spans="1:1">
+      <c r="A905"/>
+    </row>
+    <row r="906" spans="1:1">
+      <c r="A906"/>
+    </row>
+    <row r="907" spans="1:1">
+      <c r="A907"/>
+    </row>
+    <row r="908" spans="1:1">
+      <c r="A908"/>
+    </row>
+    <row r="909" spans="1:1">
+      <c r="A909"/>
+    </row>
+    <row r="910" spans="1:1">
+      <c r="A910"/>
+    </row>
+    <row r="911" spans="1:1">
+      <c r="A911"/>
+    </row>
+    <row r="912" spans="1:1">
+      <c r="A912"/>
+    </row>
+    <row r="913" spans="1:1">
+      <c r="A913"/>
+    </row>
+    <row r="914" spans="1:1">
+      <c r="A914"/>
+    </row>
+    <row r="915" spans="1:1">
+      <c r="A915"/>
+    </row>
+    <row r="916" spans="1:1">
+      <c r="A916"/>
+    </row>
+    <row r="917" spans="1:1">
+      <c r="A917"/>
+    </row>
+    <row r="918" spans="1:1">
+      <c r="A918"/>
+    </row>
+    <row r="919" spans="1:1">
+      <c r="A919"/>
+    </row>
+    <row r="920" spans="1:1">
+      <c r="A920"/>
+    </row>
+    <row r="921" spans="1:1">
+      <c r="A921"/>
+    </row>
+    <row r="922" spans="1:1">
+      <c r="A922"/>
+    </row>
+    <row r="923" spans="1:1">
+      <c r="A923"/>
+    </row>
+    <row r="924" spans="1:1">
+      <c r="A924"/>
+    </row>
+    <row r="925" spans="1:1">
+      <c r="A925"/>
+    </row>
+    <row r="926" spans="1:1">
+      <c r="A926"/>
+    </row>
+    <row r="927" spans="1:1">
+      <c r="A927"/>
+    </row>
+    <row r="928" spans="1:1">
+      <c r="A928"/>
+    </row>
+    <row r="929" spans="1:1">
+      <c r="A929"/>
+    </row>
+    <row r="930" spans="1:1">
+      <c r="A930"/>
+    </row>
+    <row r="931" spans="1:1">
+      <c r="A931"/>
+    </row>
+    <row r="932" spans="1:1">
+      <c r="A932"/>
+    </row>
+    <row r="933" spans="1:1">
+      <c r="A933"/>
+    </row>
+    <row r="934" spans="1:1">
+      <c r="A934"/>
+    </row>
+    <row r="935" spans="1:1">
+      <c r="A935"/>
+    </row>
+    <row r="936" spans="1:1">
+      <c r="A936"/>
+    </row>
+    <row r="937" spans="1:1">
+      <c r="A937"/>
+    </row>
+    <row r="938" spans="1:1">
+      <c r="A938"/>
+    </row>
+    <row r="939" spans="1:1">
+      <c r="A939"/>
+    </row>
+    <row r="940" spans="1:1">
+      <c r="A940"/>
+    </row>
+    <row r="941" spans="1:1">
+      <c r="A941"/>
+    </row>
+    <row r="942" spans="1:1">
+      <c r="A942"/>
+    </row>
+    <row r="943" spans="1:1">
+      <c r="A943"/>
+    </row>
+    <row r="944" spans="1:1">
+      <c r="A944"/>
+    </row>
+    <row r="945" spans="1:1">
+      <c r="A945"/>
+    </row>
+    <row r="946" spans="1:1">
+      <c r="A946"/>
+    </row>
+    <row r="947" spans="1:1">
+      <c r="A947"/>
+    </row>
+    <row r="948" spans="1:1">
+      <c r="A948"/>
+    </row>
+    <row r="949" spans="1:1">
+      <c r="A949"/>
+    </row>
+    <row r="950" spans="1:1">
+      <c r="A950"/>
+    </row>
+    <row r="951" spans="1:1">
+      <c r="A951"/>
+    </row>
+    <row r="952" spans="1:1">
+      <c r="A952"/>
+    </row>
+    <row r="953" spans="1:1">
+      <c r="A953"/>
+    </row>
+    <row r="954" spans="1:1">
+      <c r="A954"/>
+    </row>
+    <row r="955" spans="1:1">
+      <c r="A955"/>
+    </row>
+    <row r="956" spans="1:1">
+      <c r="A956"/>
+    </row>
+    <row r="957" spans="1:1">
+      <c r="A957"/>
+    </row>
+    <row r="958" spans="1:1">
+      <c r="A958"/>
+    </row>
+    <row r="959" spans="1:1">
+      <c r="A959"/>
+    </row>
+    <row r="960" spans="1:1">
+      <c r="A960"/>
+    </row>
+    <row r="961" spans="1:1">
+      <c r="A961"/>
+    </row>
+    <row r="962" spans="1:1">
+      <c r="A962"/>
+    </row>
+    <row r="963" spans="1:1">
+      <c r="A963"/>
+    </row>
+    <row r="964" spans="1:1">
+      <c r="A964"/>
+    </row>
+    <row r="965" spans="1:1">
+      <c r="A965"/>
+    </row>
+    <row r="966" spans="1:1">
+      <c r="A966"/>
+    </row>
+    <row r="967" spans="1:1">
+      <c r="A967"/>
+    </row>
+    <row r="968" spans="1:1">
+      <c r="A968"/>
+    </row>
+    <row r="969" spans="1:1">
+      <c r="A969"/>
+    </row>
+    <row r="970" spans="1:1">
+      <c r="A970"/>
+    </row>
+    <row r="971" spans="1:1">
+      <c r="A971"/>
+    </row>
+    <row r="972" spans="1:1">
+      <c r="A972"/>
+    </row>
+    <row r="973" spans="1:1">
+      <c r="A973"/>
+    </row>
+    <row r="974" spans="1:1">
+      <c r="A974"/>
+    </row>
+    <row r="975" spans="1:1">
+      <c r="A975"/>
+    </row>
+    <row r="976" spans="1:1">
+      <c r="A976"/>
+    </row>
+    <row r="977" spans="1:1">
+      <c r="A977"/>
+    </row>
+    <row r="978" spans="1:1">
+      <c r="A978"/>
+    </row>
+    <row r="979" spans="1:1">
+      <c r="A979"/>
+    </row>
+    <row r="980" spans="1:1">
+      <c r="A980"/>
+    </row>
+    <row r="981" spans="1:1">
+      <c r="A981"/>
+    </row>
+    <row r="982" spans="1:1">
+      <c r="A982"/>
+    </row>
+    <row r="983" spans="1:1">
+      <c r="A983"/>
+    </row>
+    <row r="984" spans="1:1">
+      <c r="A984"/>
+    </row>
+    <row r="985" spans="1:1">
+      <c r="A985"/>
+    </row>
+    <row r="986" spans="1:1">
+      <c r="A986"/>
+    </row>
+    <row r="987" spans="1:1">
+      <c r="A987"/>
+    </row>
+    <row r="988" spans="1:1">
+      <c r="A988"/>
+    </row>
+    <row r="989" spans="1:1">
+      <c r="A989"/>
+    </row>
+    <row r="990" spans="1:1">
+      <c r="A990"/>
+    </row>
+    <row r="991" spans="1:1">
+      <c r="A991"/>
+    </row>
+    <row r="992" spans="1:1">
+      <c r="A992"/>
+    </row>
+    <row r="993" spans="1:1">
+      <c r="A993"/>
+    </row>
+    <row r="994" spans="1:1">
+      <c r="A994"/>
+    </row>
+    <row r="995" spans="1:1">
+      <c r="A995"/>
+    </row>
+    <row r="996" spans="1:1">
+      <c r="A996"/>
+    </row>
+    <row r="997" spans="1:1">
+      <c r="A997"/>
+    </row>
+    <row r="998" spans="1:1">
+      <c r="A998"/>
+    </row>
+    <row r="999" spans="1:1">
+      <c r="A999"/>
+    </row>
+    <row r="1000" spans="1:1">
+      <c r="A1000"/>
+    </row>
+    <row r="1001" spans="1:1">
+      <c r="A1001"/>
+    </row>
+    <row r="1002" spans="1:1">
+      <c r="A1002"/>
+    </row>
+    <row r="1003" spans="1:1">
+      <c r="A1003"/>
+    </row>
+    <row r="1004" spans="1:1">
+      <c r="A1004"/>
+    </row>
+    <row r="1005" spans="1:1">
+      <c r="A1005"/>
+    </row>
+    <row r="1006" spans="1:1">
+      <c r="A1006"/>
+    </row>
+    <row r="1007" spans="1:1">
+      <c r="A1007"/>
+    </row>
+    <row r="1008" spans="1:1">
+      <c r="A1008"/>
+    </row>
+    <row r="1009" spans="1:1">
+      <c r="A1009"/>
+    </row>
+    <row r="1010" spans="1:1">
+      <c r="A1010"/>
+    </row>
+    <row r="1011" spans="1:1">
+      <c r="A1011"/>
+    </row>
+    <row r="1012" spans="1:1">
+      <c r="A1012"/>
+    </row>
+    <row r="1013" spans="1:1">
+      <c r="A1013"/>
+    </row>
+    <row r="1014" spans="1:1">
+      <c r="A1014"/>
+    </row>
+    <row r="1015" spans="1:1">
+      <c r="A1015"/>
+    </row>
+    <row r="1016" spans="1:1">
+      <c r="A1016"/>
+    </row>
+    <row r="1017" spans="1:1">
+      <c r="A1017"/>
+    </row>
+    <row r="1018" spans="1:1">
+      <c r="A1018"/>
+    </row>
+    <row r="1019" spans="1:1">
+      <c r="A1019"/>
+    </row>
+    <row r="1020" spans="1:1">
+      <c r="A1020"/>
+    </row>
+    <row r="1021" spans="1:1">
+      <c r="A1021"/>
+    </row>
+    <row r="1022" spans="1:1">
+      <c r="A1022"/>
+    </row>
+    <row r="1023" spans="1:1">
+      <c r="A1023"/>
+    </row>
+    <row r="1024" spans="1:1">
+      <c r="A1024"/>
+    </row>
+    <row r="1025" spans="1:1">
+      <c r="A1025"/>
+    </row>
+    <row r="1026" spans="1:1">
+      <c r="A1026"/>
+    </row>
+    <row r="1027" spans="1:1">
+      <c r="A1027"/>
+    </row>
+    <row r="1028" spans="1:1">
+      <c r="A1028"/>
+    </row>
+    <row r="1029" spans="1:1">
+      <c r="A1029"/>
+    </row>
+    <row r="1030" spans="1:1">
+      <c r="A1030"/>
+    </row>
+    <row r="1031" spans="1:1">
+      <c r="A1031"/>
+    </row>
+    <row r="1032" spans="1:1">
+      <c r="A1032"/>
+    </row>
+    <row r="1033" spans="1:1">
+      <c r="A1033"/>
+    </row>
+    <row r="1034" spans="1:1">
+      <c r="A1034"/>
+    </row>
+    <row r="1035" spans="1:1">
+      <c r="A1035"/>
+    </row>
+    <row r="1036" spans="1:1">
+      <c r="A1036"/>
+    </row>
+    <row r="1037" spans="1:1">
+      <c r="A1037"/>
+    </row>
+    <row r="1038" spans="1:1">
+      <c r="A1038"/>
+    </row>
+    <row r="1039" spans="1:1">
+      <c r="A1039"/>
+    </row>
+    <row r="1040" spans="1:1">
+      <c r="A1040"/>
+    </row>
+    <row r="1041" spans="1:1">
+      <c r="A1041"/>
+    </row>
+    <row r="1042" spans="1:1">
+      <c r="A1042"/>
+    </row>
+    <row r="1043" spans="1:1">
+      <c r="A1043"/>
+    </row>
+    <row r="1044" spans="1:1">
+      <c r="A1044"/>
+    </row>
+    <row r="1045" spans="1:1">
+      <c r="A1045"/>
+    </row>
+    <row r="1046" spans="1:1">
+      <c r="A1046"/>
+    </row>
+    <row r="1047" spans="1:1">
+      <c r="A1047"/>
+    </row>
+    <row r="1048" spans="1:1">
+      <c r="A1048"/>
+    </row>
+    <row r="1049" spans="1:1">
+      <c r="A1049"/>
+    </row>
+    <row r="1050" spans="1:1">
+      <c r="A1050"/>
+    </row>
+    <row r="1051" spans="1:1">
+      <c r="A1051"/>
+    </row>
+    <row r="1052" spans="1:1">
+      <c r="A1052"/>
+    </row>
+    <row r="1053" spans="1:1">
+      <c r="A1053"/>
+    </row>
+    <row r="1054" spans="1:1">
+      <c r="A1054"/>
+    </row>
+    <row r="1055" spans="1:1">
+      <c r="A1055"/>
+    </row>
+    <row r="1056" spans="1:1">
+      <c r="A1056"/>
+    </row>
+    <row r="1057" spans="1:1">
+      <c r="A1057"/>
+    </row>
+    <row r="1058" spans="1:1">
+      <c r="A1058"/>
+    </row>
+    <row r="1059" spans="1:1">
+      <c r="A1059"/>
+    </row>
+    <row r="1060" spans="1:1">
+      <c r="A1060"/>
+    </row>
+    <row r="1061" spans="1:1">
+      <c r="A1061"/>
+    </row>
+    <row r="1062" spans="1:1">
+      <c r="A1062"/>
+    </row>
+    <row r="1063" spans="1:1">
+      <c r="A1063"/>
+    </row>
+    <row r="1064" spans="1:1">
+      <c r="A1064"/>
+    </row>
+    <row r="1065" spans="1:1">
+      <c r="A1065"/>
+    </row>
+    <row r="1066" spans="1:1">
+      <c r="A1066"/>
+    </row>
+    <row r="1067" spans="1:1">
+      <c r="A1067"/>
+    </row>
+    <row r="1068" spans="1:1">
+      <c r="A1068"/>
+    </row>
+    <row r="1069" spans="1:1">
+      <c r="A1069"/>
+    </row>
+    <row r="1070" spans="1:1">
+      <c r="A1070"/>
+    </row>
+    <row r="1071" spans="1:1">
+      <c r="A1071"/>
+    </row>
+    <row r="1072" spans="1:1">
+      <c r="A1072"/>
+    </row>
+    <row r="1073" spans="1:1">
+      <c r="A1073"/>
+    </row>
+    <row r="1074" spans="1:1">
+      <c r="A1074"/>
+    </row>
+    <row r="1075" spans="1:1">
+      <c r="A1075"/>
+    </row>
+    <row r="1076" spans="1:1">
+      <c r="A1076"/>
+    </row>
+    <row r="1077" spans="1:1">
+      <c r="A1077"/>
+    </row>
+    <row r="1078" spans="1:1">
+      <c r="A1078"/>
+    </row>
+    <row r="1079" spans="1:1">
+      <c r="A1079"/>
+    </row>
+    <row r="1080" spans="1:1">
+      <c r="A1080"/>
+    </row>
+    <row r="1081" spans="1:1">
+      <c r="A1081"/>
+    </row>
+    <row r="1082" spans="1:1">
+      <c r="A1082"/>
+    </row>
+    <row r="1083" spans="1:1">
+      <c r="A1083"/>
+    </row>
+    <row r="1084" spans="1:1">
+      <c r="A1084"/>
+    </row>
+    <row r="1085" spans="1:1">
+      <c r="A1085"/>
+    </row>
+    <row r="1086" spans="1:1">
+      <c r="A1086"/>
+    </row>
+    <row r="1087" spans="1:1">
+      <c r="A1087"/>
+    </row>
+    <row r="1088" spans="1:1">
+      <c r="A1088"/>
+    </row>
+    <row r="1089" spans="1:1">
+      <c r="A1089"/>
+    </row>
+    <row r="1090" spans="1:1">
+      <c r="A1090"/>
+    </row>
+    <row r="1091" spans="1:1">
+      <c r="A1091"/>
+    </row>
+    <row r="1092" spans="1:1">
+      <c r="A1092"/>
+    </row>
+    <row r="1093" spans="1:1">
+      <c r="A1093"/>
+    </row>
+    <row r="1094" spans="1:1">
+      <c r="A1094"/>
+    </row>
+    <row r="1095" spans="1:1">
+      <c r="A1095"/>
+    </row>
+    <row r="1096" spans="1:1">
+      <c r="A1096"/>
+    </row>
+    <row r="1097" spans="1:1">
+      <c r="A1097"/>
+    </row>
+    <row r="1098" spans="1:1">
+      <c r="A1098"/>
+    </row>
+    <row r="1099" spans="1:1">
+      <c r="A1099"/>
+    </row>
+    <row r="1100" spans="1:1">
+      <c r="A1100"/>
+    </row>
+    <row r="1101" spans="1:1">
+      <c r="A1101"/>
+    </row>
+    <row r="1102" spans="1:1">
+      <c r="A1102"/>
+    </row>
+    <row r="1103" spans="1:1">
+      <c r="A1103"/>
+    </row>
+    <row r="1104" spans="1:1">
+      <c r="A1104"/>
+    </row>
+    <row r="1105" spans="1:1">
+      <c r="A1105"/>
+    </row>
+    <row r="1106" spans="1:1">
+      <c r="A1106"/>
+    </row>
+    <row r="1107" spans="1:1">
+      <c r="A1107"/>
+    </row>
+    <row r="1108" spans="1:1">
+      <c r="A1108"/>
+    </row>
+    <row r="1109" spans="1:1">
+      <c r="A1109"/>
+    </row>
+    <row r="1110" spans="1:1">
+      <c r="A1110"/>
+    </row>
+    <row r="1111" spans="1:1">
+      <c r="A1111"/>
+    </row>
+    <row r="1112" spans="1:1">
+      <c r="A1112"/>
+    </row>
+    <row r="1113" spans="1:1">
+      <c r="A1113"/>
+    </row>
+    <row r="1114" spans="1:1">
+      <c r="A1114"/>
+    </row>
+    <row r="1115" spans="1:1">
+      <c r="A1115"/>
+    </row>
+    <row r="1116" spans="1:1">
+      <c r="A1116"/>
+    </row>
+    <row r="1117" spans="1:1">
+      <c r="A1117"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
